--- a/output/abstract.xlsx
+++ b/output/abstract.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,32 +451,52 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Category</t>
+          <t>AdmitCard No</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>CorrectAns</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>CorrectAns</t>
+          <t>IncorrectAns</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>IncorrectAns</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>paper1</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>paper2</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>paper3</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>paper4</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>Score</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Grade</t>
         </is>
       </c>
     </row>
@@ -486,7 +506,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024004</t>
+          <t>UP22SWA251006</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -496,25 +516,37 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Unreserved</t>
-        </is>
+          <t>7087</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>48</v>
       </c>
       <c r="F2" t="n">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="J2" t="n">
+        <v>70</v>
+      </c>
+      <c r="K2" t="n">
+        <v>35</v>
+      </c>
+      <c r="L2" t="n">
+        <v>120</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -523,35 +555,47 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024003</t>
+          <t>UP21SDA250790</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>OBC-NCL</t>
-        </is>
+          <t>0832</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>64</v>
       </c>
       <c r="F3" t="n">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="G3" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>55</v>
+        <v>15</v>
+      </c>
+      <c r="J3" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L3" t="n">
+        <v>160</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -560,109 +604,47 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024002</t>
+          <t>UP22SDA251042</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
+          <t>3788</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>52</v>
       </c>
       <c r="F4" t="n">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="G4" t="n">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2024001</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>SC</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>27</v>
-      </c>
-      <c r="G5" t="n">
-        <v>73</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2024005</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>GEN-EWS</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>23</v>
-      </c>
-      <c r="G6" t="n">
-        <v>76</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>16</v>
+        <v>12.5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>45</v>
+      </c>
+      <c r="L4" t="n">
+        <v>130</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
       </c>
     </row>
   </sheetData>
